--- a/biology/Médecine/Leucopénie/Leucopénie.xlsx
+++ b/biology/Médecine/Leucopénie/Leucopénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leucop%C3%A9nie</t>
+          <t>Leucopénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une leucopénie est une baisse du nombre de leucocytes totaux (c'est-à-dire de globules blancs) dans le sang (moins de 4 000 éléments/mm3 ou 4 milliards/litre).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leucop%C3%A9nie</t>
+          <t>Leucopénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les globules blancs étant composés en partie de granulocytes (ou polynucléaires) et de lymphocytes, suivant la lignée atteinte, on parle de :
 neutropénie ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leucop%C3%A9nie</t>
+          <t>Leucopénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Causes possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Toxique :
-certains médicaments, notamment en chimiothérapie[1],[2].
+certains médicaments, notamment en chimiothérapie,.
 Infectieuse
 Déficit de production: maladie de moelle osseuse
 Irradiation locale ou globale avec effets avec seuil :
